--- a/Ponderaciones edificación.xlsx
+++ b/Ponderaciones edificación.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rubén\Desktop\Viabilidad_promocion-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ESTUDIS\APP\Viabilidad_promocion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4221649B-4D10-4E70-81F1-8F6C953045F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D344EC64-2856-43D1-937F-EEEEB8691AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4605" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -33,9 +44,6 @@
     <t>Ponderación</t>
   </si>
   <si>
-    <t>2024T2</t>
-  </si>
-  <si>
     <t>2024T3</t>
   </si>
   <si>
@@ -76,6 +84,9 @@
   </si>
   <si>
     <t>2026T3</t>
+  </si>
+  <si>
+    <t>2026T4</t>
   </si>
 </sst>
 </file>
@@ -417,7 +428,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +469,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>16</v>
@@ -466,7 +477,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>0.85470085470085466</v>
@@ -504,7 +515,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>5.9829059829059825E-2</v>
@@ -542,7 +553,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>4.2735042735042736E-2</v>
@@ -580,7 +591,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2">
         <v>1.7094017094017092E-2</v>
@@ -618,7 +629,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2">
         <v>2.564102564102564E-2</v>

--- a/Ponderaciones edificación.xlsx
+++ b/Ponderaciones edificación.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ESTUDIS\APP\Viabilidad_promocion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D344EC64-2856-43D1-937F-EEEEB8691AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC0E060-2A3C-4045-8492-C8FDE79E7034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,5 +667,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>